--- a/biology/Médecine/Hava_de_Manosque/Hava_de_Manosque.xlsx
+++ b/biology/Médecine/Hava_de_Manosque/Hava_de_Manosque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hava de Manosque, appelée aussi Hana ou Fava, est une femme médecin du XIVe siècle.
-Elle appartenait à une famille juive provençale et son mari et son fils étaient également médecins et chirurgiens[1].
-Les archives de Manosque donnent des informations sur une femme chirurgienne nommée Fava (Fava, judea, surgica de Manuasca)[2],[3] qui était intervenue en 1321 pour secourir un gentilhomme chrétien blessé aux testicules du nom de Poncius Porcelli[4].
+Elle appartenait à une famille juive provençale et son mari et son fils étaient également médecins et chirurgiens.
+Les archives de Manosque donnent des informations sur une femme chirurgienne nommée Fava (Fava, judea, surgica de Manuasca), qui était intervenue en 1321 pour secourir un gentilhomme chrétien blessé aux testicules du nom de Poncius Porcelli.
 </t>
         </is>
       </c>
